--- a/code/lang/lang.dlg.xlsx
+++ b/code/lang/lang.dlg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mingsongli/Dropbox/git/acycle/code/lang/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB37783D-A050-8944-A964-53AACE501CE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{749A4B63-FEAA-C748-8E18-93F154DBC25C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5360" yWindow="20600" windowWidth="27640" windowHeight="16940" xr2:uid="{8D5AC2A0-DD8C-0345-BCF7-80CEE6F9AA2D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="67200" windowHeight="21140" xr2:uid="{8D5AC2A0-DD8C-0345-BCF7-80CEE6F9AA2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>ID</t>
   </si>
@@ -54,6 +54,12 @@
   </si>
   <si>
     <t>语言已经更改为中文。正在重启软件。</t>
+  </si>
+  <si>
+    <t>cn_tradition</t>
+  </si>
+  <si>
+    <t>語言已經更改為中文。正在重啟軟件。</t>
   </si>
 </sst>
 </file>
@@ -109,7 +115,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -397,7 +403,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -405,19 +411,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DEBDC29-88C1-E445-A196-801F7B904670}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="51.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -428,10 +435,13 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -440,6 +450,9 @@
       </c>
       <c r="C2" t="s">
         <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
